--- a/biology/Zoologie/Copuetta_wagneri/Copuetta_wagneri.xlsx
+++ b/biology/Zoologie/Copuetta_wagneri/Copuetta_wagneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Copuetta wagneri est une espèce d'araignées aranéomorphes de la famille des Corinnidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copuetta wagneri est une espèce d'araignées aranéomorphes de la famille des Corinnidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Ouganda[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Ouganda.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Haddad, 2013  : Taxonomic notes on the spider genus Messapus Simon, 1898 (Araneae, Corinnidae), with the description of the new genera Copuetta and Wasaka and the first cladistic analysis of Afrotropical Castianeirinae. Zootaxa, no 3688, p. 1-79.</t>
         </is>
